--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Desktop\Ingeneria de software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66FB437B-E3FB-4AA1-8359-B56D5B02E7D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC400CBE-931A-4325-956C-745ED0010975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>Guillermo Toloza Guzman</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer el resumen de propiedad horizontal, y los requisitos propuestos por los demas compañeros </t>
+  </si>
+  <si>
+    <t>Logre la meta</t>
+  </si>
+  <si>
+    <t>Hablar con una persona que tiene experiencia en Administracion de unidades</t>
   </si>
 </sst>
 </file>
@@ -348,24 +360,6 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -377,25 +371,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,7 +433,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -720,37 +732,37 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="4" max="4" width="26.36328125" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="4.6328125" customWidth="1"/>
-    <col min="12" max="12" width="9.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -759,14 +771,14 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -775,203 +787,215 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="21"/>
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16"/>
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="23"/>
-      <c r="B8" s="19" t="s">
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="8"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="21"/>
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="23"/>
-      <c r="B11" s="19" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="8"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="21"/>
-      <c r="B12" s="9" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21"/>
-      <c r="B15" s="9" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="22" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="23"/>
-      <c r="B17" s="19" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="21"/>
-      <c r="B18" s="10" t="s">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC400CBE-931A-4325-956C-745ED0010975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2B8E3-8E23-4D45-9D42-439555669B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="3288" yWindow="4380" windowWidth="16296" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Hablar con una persona que tiene experiencia en Administracion de unidades</t>
+  </si>
+  <si>
+    <t>Esperar a que el profe adelantara tema y quedara más clara una explicación de la situación</t>
+  </si>
+  <si>
+    <t>Leer el resumen de propiedad horizontal, ver algunos requisitos nuevos y plantear cuáles serían los clientes Potenciales. Pensé sobre cuales serían los metodos, el nucleo y las practicas de nuestro proyecto para socializar en la próxima reunión.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +439,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -731,29 +737,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -771,7 +777,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -787,7 +793,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -810,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -823,7 +829,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -834,7 +840,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -845,7 +851,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -862,7 +868,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -877,7 +883,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -892,7 +898,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -905,7 +911,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -916,7 +922,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -927,7 +933,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -940,7 +946,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -951,7 +957,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -962,37 +968,49 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -5,35 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC400CBE-931A-4325-956C-745ED0010975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268A8111-A7D7-49E1-8E49-A3CCF3D88071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -116,6 +108,9 @@
   </si>
   <si>
     <t>Hablar con una persona que tiene experiencia en Administracion de unidades</t>
+  </si>
+  <si>
+    <t>Leer sobre métodos, prácticas y núcleos. Pensar en clientes potenciales.</t>
   </si>
 </sst>
 </file>
@@ -433,7 +428,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -732,28 +727,28 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -771,7 +766,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -787,7 +782,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -810,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -823,7 +818,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -834,7 +829,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -845,7 +840,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -862,7 +857,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -877,7 +872,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -892,42 +887,54 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -940,7 +947,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -951,7 +958,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -962,7 +969,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -975,7 +982,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -986,7 +993,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C2B8E3-8E23-4D45-9D42-439555669B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6BD6EC-D6DF-4B17-AEA3-54D650A0A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3288" yWindow="4380" windowWidth="16296" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -122,6 +114,12 @@
   </si>
   <si>
     <t>Leer el resumen de propiedad horizontal, ver algunos requisitos nuevos y plantear cuáles serían los clientes Potenciales. Pensé sobre cuales serían los metodos, el nucleo y las practicas de nuestro proyecto para socializar en la próxima reunión.</t>
+  </si>
+  <si>
+    <t>La espera de un tema nuevo y las tareas que vienen con este.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer sobre nucleos, metodos y practicas. Pensar en clientes potenciales para el desarrollo. </t>
   </si>
 </sst>
 </file>
@@ -737,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -905,8 +903,12 @@
       <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
@@ -916,8 +918,12 @@
       <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
@@ -927,8 +933,12 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6BD6EC-D6DF-4B17-AEA3-54D650A0A482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2FD42-84A6-445B-BE3E-A5A89BD0433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>La espera de un tema nuevo y las tareas que vienen con este.</t>
   </si>
   <si>
-    <t xml:space="preserve">Leer sobre nucleos, metodos y practicas. Pensar en clientes potenciales para el desarrollo. </t>
+    <t>Pensar en clientes potenciales para el desarrollo; y en el nucleos, los metodos y practicas relacionados al proyecto.</t>
   </si>
 </sst>
 </file>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A2FD42-84A6-445B-BE3E-A5A89BD0433C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E777AB-96FA-42E0-9B94-CD6C67F10399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>Pensar en clientes potenciales para el desarrollo; y en el nucleos, los metodos y practicas relacionados al proyecto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leer el resumen de propiedad horizontal y ampliar la informacion de requisitos </t>
+  </si>
+  <si>
+    <t>Tomar las recomendaciones del profesor y evaluar los casos necesarios a cambiar de mi resumen anterior</t>
+  </si>
+  <si>
+    <t>esperar a las instrucciones del profesor para el avanve del jueves</t>
+  </si>
+  <si>
+    <t>se cumplió lo propuesto</t>
   </si>
 </sst>
 </file>
@@ -735,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,7 +756,7 @@
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="92.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="206.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
@@ -950,9 +962,15 @@
       <c r="B13" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
@@ -961,8 +979,12 @@
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
@@ -972,8 +994,12 @@
       <c r="B15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E777AB-96FA-42E0-9B94-CD6C67F10399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA685B5-3C8D-4DDC-AD9B-64E3401BEE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>se cumplió lo propuesto</t>
+  </si>
+  <si>
+    <t>Se cumplió lo propuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asistir y aportar a la reunión, </t>
   </si>
 </sst>
 </file>
@@ -747,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -921,7 +927,9 @@
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
@@ -936,7 +944,9 @@
       <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
@@ -951,7 +961,9 @@
       <c r="D12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA685B5-3C8D-4DDC-AD9B-64E3401BEE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA7B408B-74F9-4DCC-9689-3A50CA20EC17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asistir y aportar a la reunión, </t>
+  </si>
+  <si>
+    <t>Revisión y socialización de las ideas para la reunión</t>
   </si>
 </sst>
 </file>
@@ -753,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,8 +765,8 @@
     <col min="1" max="1" width="26.44140625" customWidth="1"/>
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="92.6640625" customWidth="1"/>
-    <col min="4" max="4" width="206.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="234.33203125" customWidth="1"/>
+    <col min="5" max="5" width="51.88671875" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
@@ -1029,7 +1032,9 @@
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
@@ -1044,7 +1049,9 @@
       <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
@@ -1059,7 +1066,9 @@
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA685B5-3C8D-4DDC-AD9B-64E3401BEE55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5206D8-AB8B-40C0-86C3-ED5BC458F4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t xml:space="preserve">Asistir y aportar a la reunión, </t>
+  </si>
+  <si>
+    <t>Leer las primeras tematicas del texto guia para ampliar conceptos que aporten a un enriquesimiento del materia base para el proyecto</t>
+  </si>
+  <si>
+    <t>Asistir y aportar a la reunión, generando temas de discusion y propuestas para encaminar la lluvia de ideas.</t>
   </si>
 </sst>
 </file>
@@ -754,7 +760,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -763,7 +769,7 @@
     <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="92.6640625" customWidth="1"/>
     <col min="4" max="4" width="206.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.109375" customWidth="1"/>
     <col min="7" max="7" width="22.109375" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
@@ -997,7 +1003,9 @@
       <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
@@ -1012,7 +1020,9 @@
       <c r="D15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5206D8-AB8B-40C0-86C3-ED5BC458F4F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9382C9AD-69C8-486F-8474-076BE0EE142C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -140,10 +140,10 @@
     <t xml:space="preserve">Asistir y aportar a la reunión, </t>
   </si>
   <si>
-    <t>Leer las primeras tematicas del texto guia para ampliar conceptos que aporten a un enriquesimiento del materia base para el proyecto</t>
-  </si>
-  <si>
     <t>Asistir y aportar a la reunión, generando temas de discusion y propuestas para encaminar la lluvia de ideas.</t>
+  </si>
+  <si>
+    <t>Logre mi meta</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,29 +759,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="92.6640625" customWidth="1"/>
-    <col min="4" max="4" width="206.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.7109375" customWidth="1"/>
+    <col min="4" max="4" width="206.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -815,7 +815,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -862,7 +862,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -873,7 +873,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -886,11 +886,13 @@
       <c r="D7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -901,11 +903,13 @@
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -916,11 +920,13 @@
       <c r="D9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -939,7 +945,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -956,7 +962,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -973,7 +979,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -992,7 +998,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -1004,12 +1010,12 @@
         <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1021,12 +1027,12 @@
         <v>16</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1043,7 +1049,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -1058,7 +1064,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9382C9AD-69C8-486F-8474-076BE0EE142C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7E32E-930C-4C4C-B1F2-F8320AD5C2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Logre mi meta</t>
+  </si>
+  <si>
+    <t>Asistir y aportar en la reunión, se socializaron las ideas y las propuestas que tenía cada uno</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -759,29 +762,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="92.7109375" customWidth="1"/>
-    <col min="4" max="4" width="206.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="4.5703125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.6640625" customWidth="1"/>
+    <col min="4" max="4" width="206.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
+    <col min="7" max="7" width="22.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -799,7 +802,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -815,7 +818,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -838,7 +841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -851,7 +854,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -862,7 +865,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -873,7 +876,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -892,7 +895,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -909,7 +912,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -926,7 +929,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -945,7 +948,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -962,7 +965,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -979,7 +982,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -998,7 +1001,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -1015,7 +1018,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1032,7 +1035,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1045,11 +1048,13 @@
       <c r="D16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -1060,11 +1065,13 @@
       <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
@@ -1075,7 +1082,9 @@
       <c r="D18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D7E32E-930C-4C4C-B1F2-F8320AD5C2EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F11001-902F-4834-9D35-4F5D51C7E28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -147,6 +147,24 @@
   </si>
   <si>
     <t>Asistir y aportar en la reunión, se socializaron las ideas y las propuestas que tenía cada uno</t>
+  </si>
+  <si>
+    <t>Se organizara el repositorio del github</t>
+  </si>
+  <si>
+    <t>Se organizo el repositorio del github y se hizo la plantilla de las actas</t>
+  </si>
+  <si>
+    <t>Ideas de requisitos y leer aspectos del Semat</t>
+  </si>
+  <si>
+    <t>Tareas de otras materias</t>
+  </si>
+  <si>
+    <t>Se hicieron los requisitos y la lista de chequeo</t>
+  </si>
+  <si>
+    <t>reunion con el eqipo de trabajo,compartir ideas acerca del modelo</t>
   </si>
 </sst>
 </file>
@@ -762,29 +780,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="92.6640625" customWidth="1"/>
-    <col min="4" max="4" width="206.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="92.6328125" customWidth="1"/>
+    <col min="4" max="4" width="206.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.08984375" customWidth="1"/>
+    <col min="7" max="7" width="22.08984375" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.36328125" customWidth="1"/>
+    <col min="10" max="10" width="10.90625" customWidth="1"/>
+    <col min="11" max="11" width="4.54296875" customWidth="1"/>
+    <col min="12" max="12" width="9.36328125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -802,7 +820,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -818,7 +836,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -841,42 +859,60 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -895,7 +931,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -912,7 +948,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -929,7 +965,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -948,7 +984,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -965,7 +1001,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -982,7 +1018,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1037,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -1018,7 +1054,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1035,7 +1071,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1090,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -1071,7 +1107,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariana\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F11001-902F-4834-9D35-4F5D51C7E28E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136129C-6FF6-4C06-B377-8A1CA708CB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -165,6 +165,15 @@
   </si>
   <si>
     <t>reunion con el eqipo de trabajo,compartir ideas acerca del modelo</t>
+  </si>
+  <si>
+    <t>Se cumplio lo propuesto</t>
+  </si>
+  <si>
+    <t>Presentar ante el profesor para tener en cuenta las indicaciones.</t>
+  </si>
+  <si>
+    <t>Asistir a la reunión para la asignación de tareas y tener en cuenta qué dijo el profe.</t>
   </si>
 </sst>
 </file>
@@ -780,29 +789,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
-    <col min="3" max="3" width="92.6328125" customWidth="1"/>
-    <col min="4" max="4" width="206.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.08984375" customWidth="1"/>
-    <col min="7" max="7" width="22.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
-    <col min="9" max="9" width="13.36328125" customWidth="1"/>
-    <col min="10" max="10" width="10.90625" customWidth="1"/>
-    <col min="11" max="11" width="4.54296875" customWidth="1"/>
-    <col min="12" max="12" width="9.36328125" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="92.6640625" customWidth="1"/>
+    <col min="4" max="4" width="206.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="7" max="7" width="74" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
+    <col min="11" max="11" width="4.5546875" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -820,7 +829,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -836,7 +845,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -859,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -878,7 +887,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -895,7 +904,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -912,7 +921,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -931,7 +940,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -948,7 +957,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -965,7 +974,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -981,10 +990,14 @@
       <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -998,10 +1011,14 @@
       <c r="E11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1015,10 +1032,14 @@
       <c r="E12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1058,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -1054,7 +1075,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1071,7 +1092,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1090,7 +1111,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -1107,7 +1128,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paula\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6136129C-6FF6-4C06-B377-8A1CA708CB6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93919F68-3D59-4327-A31E-C59D46FDD865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="312" yWindow="4860" windowWidth="16296" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,8 +1108,12 @@
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2"/>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="15"/>
@@ -1125,8 +1129,12 @@
       <c r="E17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16"/>
@@ -1142,8 +1150,12 @@
       <c r="E18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guill\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93919F68-3D59-4327-A31E-C59D46FDD865}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18FE2D-D217-4566-BB88-ABE9328DB02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="4860" windowWidth="16296" windowHeight="8100" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>Asistir a la reunión para la asignación de tareas y tener en cuenta qué dijo el profe.</t>
+  </si>
+  <si>
+    <t>Realizar la presentación sobre los avances obtenidos y toma de sugerencias</t>
   </si>
 </sst>
 </file>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -800,7 +803,7 @@
     <col min="3" max="3" width="92.6640625" customWidth="1"/>
     <col min="4" max="4" width="206.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
@@ -1055,8 +1058,12 @@
       <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
@@ -1072,8 +1079,12 @@
       <c r="E14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
+      <c r="F14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16"/>
@@ -1089,8 +1100,12 @@
       <c r="E15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3"/>
+      <c r="F15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">

--- a/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
+++ b/Semana 24-28 agosto/Stand_Up_Meeitng_Week_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\57302\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mythe\Documents\GitHub\Ingenieria_Software\Semana 24-28 agosto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18FE2D-D217-4566-BB88-ABE9328DB02D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BE4F23-BEB3-44D5-966C-A15640251DE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3320EE79-9243-42E8-8E5F-EF80DE6A9110}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="44">
   <si>
     <t>SEMANA 1</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Realizar la presentación sobre los avances obtenidos y toma de sugerencias</t>
+  </si>
+  <si>
+    <t>Se cumplio lo planeado</t>
   </si>
 </sst>
 </file>
@@ -494,7 +497,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -792,29 +795,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E4E8726-24EF-4B21-B937-D55FA5E6EA95}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="92.6640625" customWidth="1"/>
-    <col min="4" max="4" width="206.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="121.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="92.7109375" customWidth="1"/>
+    <col min="4" max="4" width="206.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="121.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="74" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" customWidth="1"/>
-    <col min="11" max="11" width="4.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -832,7 +835,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -848,7 +851,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -871,7 +874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>11</v>
       </c>
@@ -890,7 +893,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="B5" s="12" t="s">
         <v>9</v>
@@ -907,7 +910,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -924,7 +927,7 @@
       <c r="F6" s="7"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>12</v>
       </c>
@@ -940,10 +943,14 @@
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="12" t="s">
         <v>9</v>
@@ -957,10 +964,14 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -974,10 +985,14 @@
       <c r="E9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="F9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>13</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="12" t="s">
         <v>9</v>
@@ -1021,7 +1036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1042,7 +1057,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1065,7 +1080,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
@@ -1086,7 +1101,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1107,7 +1122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>15</v>
       </c>
@@ -1130,7 +1145,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="12" t="s">
         <v>9</v>
@@ -1151,7 +1166,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16"/>
       <c r="B18" s="4" t="s">
         <v>10</v>
